--- a/data/trans_camb/P19C07-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.202389078997946</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.318517685323924</v>
+        <v>3.318517685323926</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.761335726345342</v>
@@ -655,7 +655,7 @@
         <v>5.91067887693341</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.16690829011542</v>
+        <v>4.166908290115419</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.281758253052817</v>
@@ -664,7 +664,7 @@
         <v>4.560004280571382</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.748842038760869</v>
+        <v>3.748842038760868</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.182362932414097</v>
+        <v>-1.039918484602915</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1058500590873084</v>
+        <v>-0.06306869392866928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.01150899291159095</v>
+        <v>-0.011483737594033</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5866504309333097</v>
+        <v>-0.4679276025700429</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.343787641876523</v>
+        <v>2.324887642755403</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.015438120213862</v>
+        <v>1.042479818989783</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01702968993830265</v>
+        <v>-0.00145159641691622</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.171827736563285</v>
+        <v>2.118256286942737</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.371359595228884</v>
+        <v>1.275219658540817</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.31933045951594</v>
+        <v>5.584986861136044</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.0661668508396</v>
+        <v>6.746640733137229</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.097491437934815</v>
+        <v>7.922635915120899</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.63450355192304</v>
+        <v>6.367796166624222</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.26537461493095</v>
+        <v>9.904776857422435</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.370127924719815</v>
+        <v>7.51143091746955</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.706707397779629</v>
+        <v>4.810211464233841</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.171590484636871</v>
+        <v>7.407558488028765</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.23064509750709</v>
+        <v>6.312951813418942</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>1.64478731859652</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1.704432431760291</v>
+        <v>1.704432431760292</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.444330014051983</v>
@@ -760,7 +760,7 @@
         <v>3.091609188961882</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>2.179521545241851</v>
+        <v>2.17952154524185</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1.182881014925544</v>
@@ -769,7 +769,7 @@
         <v>2.363941265140783</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.943428524766841</v>
+        <v>1.94342852476684</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4830828888956759</v>
+        <v>-0.5264798252771098</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2119284702553504</v>
+        <v>-0.1680482133511809</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3746120334527299</v>
+        <v>-0.2698116430080945</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3364424297334543</v>
+        <v>-0.3506539776109783</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3901182847263103</v>
+        <v>0.3210593205772799</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1283910261937624</v>
+        <v>0.1148382375573811</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06375518471124454</v>
+        <v>-0.1069834486427098</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5828361609543963</v>
+        <v>0.5746907596295591</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3671846115769354</v>
+        <v>0.2810064862210516</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>8.603818791739723</v>
+        <v>6.946979593905748</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>10.57859135007269</v>
+        <v>10.50159786177752</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>9.737306622327564</v>
+        <v>11.11992282316327</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>10.26477416326056</v>
+        <v>10.49630449282017</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>16.02199891197377</v>
+        <v>15.2400418190336</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>11.14818747894159</v>
+        <v>13.04330808308426</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.296808714725779</v>
+        <v>4.244162875707802</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>6.506981871949621</v>
+        <v>7.028197157057129</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>6.114018621180503</v>
+        <v>5.487043550968815</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.8263646365314986</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.490691737236558</v>
+        <v>0.4906917372365587</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.671500479259704</v>
@@ -869,7 +869,7 @@
         <v>-1.626813562439422</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.244699748135801</v>
+        <v>1.2446997481358</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.1879116889836857</v>
@@ -878,7 +878,7 @@
         <v>-1.240772447586373</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.8579769601557298</v>
+        <v>0.8579769601557312</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.065931927179514</v>
+        <v>-1.276557772388481</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.292150276521826</v>
+        <v>-3.402605731872318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.106557182258247</v>
+        <v>-2.219489643074313</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.135623843736322</v>
+        <v>-4.172306713554818</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.075961944689628</v>
+        <v>-4.315256064818188</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.587057391052158</v>
+        <v>-1.527800249877706</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.054694376677965</v>
+        <v>-2.070074091366543</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.986801111648364</v>
+        <v>-3.043355373882203</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.9774507094234761</v>
+        <v>-0.9345012632415115</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.010139516100431</v>
+        <v>4.092568733435855</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.592946890168889</v>
+        <v>1.528907722181449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.280596366331455</v>
+        <v>3.163139838729527</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.029769655338532</v>
+        <v>0.898808079175746</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.035687210892096</v>
+        <v>0.7930785074837452</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.866310488164538</v>
+        <v>4.135981744496056</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.529342537899457</v>
+        <v>1.751812476161204</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4237403575390321</v>
+        <v>0.578914261534154</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.724506967999216</v>
+        <v>2.779615882995063</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2733592113776925</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1623195141596824</v>
+        <v>0.1623195141596826</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.3943262389012263</v>
@@ -974,7 +974,7 @@
         <v>-0.3837840798911146</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2936390245374466</v>
+        <v>0.2936390245374465</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.05143469958142182</v>
@@ -983,7 +983,7 @@
         <v>-0.3396210125919905</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2348432257304802</v>
+        <v>0.2348432257304805</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3308629935148755</v>
+        <v>-0.3281138153206835</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7429137894522558</v>
+        <v>-0.780982596376408</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5152929201298052</v>
+        <v>-0.5516638928341573</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7458877168003678</v>
+        <v>-0.7605263526382103</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7166831623682691</v>
+        <v>-0.7559540341307739</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2812695577805541</v>
+        <v>-0.292590543861708</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4323694966163545</v>
+        <v>-0.4463425578632688</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6376904876638285</v>
+        <v>-0.6527752625857058</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2197263362429044</v>
+        <v>-0.21440032006907</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.256665796085266</v>
+        <v>2.289817809327021</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.088002821298098</v>
+        <v>0.9276893582429884</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.900976455369754</v>
+        <v>1.919466439784355</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4007117038310136</v>
+        <v>0.348115937498333</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4189045323100708</v>
+        <v>0.3443381162210059</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.414662887916526</v>
+        <v>1.425367564749673</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5305349547823947</v>
+        <v>0.6831283452056646</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2038990133668583</v>
+        <v>0.241681331500833</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9569152827852033</v>
+        <v>1.045384519306857</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>1.325303627655283</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.005221637154876474</v>
+        <v>0.005221637154876821</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.299218276784684</v>
+        <v>-1.760780451234986</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.051429133965511</v>
+        <v>-1.184974747591882</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.998075242872905</v>
+        <v>-2.35258041897061</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6641885651840149</v>
+        <v>-0.7382346521778976</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.239292135384083</v>
+        <v>-1.203024391656385</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.473804032656849</v>
+        <v>-2.388688044310017</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.3726574967937969</v>
+        <v>-0.1946507706051345</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.4201530637291538</v>
+        <v>-0.4318246610632302</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.541392664430144</v>
+        <v>-1.58451853091191</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.518219150971365</v>
+        <v>3.214151477773989</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.923862650722262</v>
+        <v>4.231415614823142</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.738778552746959</v>
+        <v>2.382462085730479</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.416706035637213</v>
+        <v>4.714209000381508</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.097834493123291</v>
+        <v>4.325373544786529</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.374222409372282</v>
+        <v>1.453084215880668</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.331829160366076</v>
+        <v>3.298956058256714</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.383351165858606</v>
+        <v>3.264811191490621</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.442345104029621</v>
+        <v>1.391536138596807</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.7124370621018173</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.00280697023410661</v>
+        <v>0.002806970234106796</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5596274260290093</v>
+        <v>-0.6573209228957129</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5053581039220872</v>
+        <v>-0.5290804724472288</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8062913089823194</v>
+        <v>-0.8167674265452071</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2857295152942526</v>
+        <v>-0.2827854823991138</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5248682954514877</v>
+        <v>-0.4708217333071838</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7102036262497196</v>
+        <v>-0.7437670444791967</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2167106961915968</v>
+        <v>-0.1367183770595929</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2518188968461837</v>
+        <v>-0.1950943160229585</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5788231682363736</v>
+        <v>-0.5628155560838818</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>6.372878453168473</v>
+        <v>6.104917691315491</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>7.849668532761093</v>
+        <v>8.65453071965773</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.965648340523359</v>
+        <v>4.152108415272893</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.744039306632073</v>
+        <v>5.377124856088525</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.916182938809557</v>
+        <v>5.151962129025699</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.763871545279546</v>
+        <v>2.040257957729215</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.217678338191877</v>
+        <v>3.057177916983655</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.243483221718232</v>
+        <v>3.160549333460914</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.416935145070149</v>
+        <v>1.410718523222473</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.298212258383512</v>
+        <v>-3.288540600688543</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.543461447786539</v>
+        <v>-3.691217359980548</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.912476429700009</v>
+        <v>-4.125111144707347</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.565133619251891</v>
+        <v>-5.310459195980493</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.935954069575277</v>
+        <v>-6.694239536769303</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.315050402490321</v>
+        <v>-7.595485692195609</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.155277708679666</v>
+        <v>-3.183677123486238</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.395084866504768</v>
+        <v>-4.128056334702126</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.062234104639675</v>
+        <v>-4.915930671057602</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.891153447907387</v>
+        <v>3.042585355800502</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.431030469581109</v>
+        <v>2.092278760838851</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.942941244535142</v>
+        <v>2.467025896568515</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.33224080902786</v>
+        <v>1.459380569281778</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.3446900828408661</v>
+        <v>-0.5192774184145701</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.100039186309154</v>
+        <v>-1.339221416254314</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.529258337718589</v>
+        <v>1.367916752098446</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0066235086184401</v>
+        <v>0.1344791076088331</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.6008762953390734</v>
+        <v>-0.5923836718780886</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7189283241843211</v>
+        <v>-0.7030409532835237</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7564829284285012</v>
+        <v>-0.7760129367049599</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.9499098319224205</v>
+        <v>-0.942409767058967</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6449224809763192</v>
+        <v>-0.6716773902770468</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8015543079415931</v>
+        <v>-0.8074472101797869</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8642885905968622</v>
+        <v>-0.8699889792763744</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5549645052586293</v>
+        <v>-0.5363685615579543</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7068128931630281</v>
+        <v>-0.6770939280801838</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.8348111814233014</v>
+        <v>-0.8242384171160018</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.819545574253857</v>
+        <v>2.035734645376187</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.184275079906278</v>
+        <v>1.410666154939348</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.543518138743036</v>
+        <v>3.211000250928699</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3675103293860094</v>
+        <v>0.4099167602466735</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.007550487625105428</v>
+        <v>-0.06565137391508415</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1815156105672805</v>
+        <v>-0.2097207657358333</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4619422365318311</v>
+        <v>0.4444164425814487</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.02057599442290422</v>
+        <v>0.06543837873706383</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.03274544362321211</v>
+        <v>-0.07333812424449199</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.1405422923387349</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.8539126514247548</v>
+        <v>-0.8539126514247551</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.499293586528479</v>
@@ -1520,7 +1520,7 @@
         <v>-0.03034905490746989</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-1.470957592468041</v>
+        <v>-1.470957592468042</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.56534755246751</v>
+        <v>-6.272093398202891</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.64728754186725</v>
+        <v>-4.247741667330748</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.341089197952771</v>
+        <v>-6.640863131548624</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.040051693175998</v>
+        <v>-5.199939049200338</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.233941918113902</v>
+        <v>-4.587939626978034</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.135046544945018</v>
+        <v>-4.91611665962851</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.32482050452077</v>
+        <v>-4.227767125686746</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.257260839607024</v>
+        <v>-3.253276819649162</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.275000491142318</v>
+        <v>-4.445847460623205</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.16677443487392</v>
+        <v>1.378824057600526</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.603678746082434</v>
+        <v>6.641652928381587</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.26232902906966</v>
+        <v>1.164152346905725</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.757865784593726</v>
+        <v>2.860592189471502</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.01603036676911</v>
+        <v>3.795099771926425</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.379462812332842</v>
+        <v>2.661125254970969</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.992377856183292</v>
+        <v>0.9919895820877985</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.513635320755341</v>
+        <v>3.239549828128947</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.011744726357492</v>
+        <v>0.8320188156910842</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.03690136147922007</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.22420681275041</v>
+        <v>-0.2242068127504101</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.3471333836744114</v>
@@ -1625,7 +1625,7 @@
         <v>-0.007026755944273768</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.3405727143122799</v>
+        <v>-0.3405727143122801</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8514200281431022</v>
+        <v>-0.8849990385461474</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7001881955023107</v>
+        <v>-0.6684471411257527</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8590889365684004</v>
+        <v>-0.8524674553435935</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7878979833209809</v>
+        <v>-0.8238392322626495</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7536398909095113</v>
+        <v>-0.7664985355943489</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7880773326237662</v>
+        <v>-0.7809894610881603</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.7542811362122109</v>
+        <v>-0.7426932868106698</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.572239160704041</v>
+        <v>-0.5805998419540663</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6885910570754237</v>
+        <v>-0.7255378045090457</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7512964620967988</v>
+        <v>0.6026590362533515</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.0354058500753</v>
+        <v>2.658476209340805</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5494422915216105</v>
+        <v>0.521795436687683</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.160021228888001</v>
+        <v>1.768557543215654</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.621038016346244</v>
+        <v>2.204973465675865</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.53838939399384</v>
+        <v>1.546546755325339</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4128462365826798</v>
+        <v>0.4653342286016997</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.294577253382018</v>
+        <v>1.106510609006533</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4693914802309635</v>
+        <v>0.3508040766263071</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>3.918667624809534</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.6272148246693454</v>
+        <v>-0.6272148246693452</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.277772828534744</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.590700914750836</v>
+        <v>-0.5682905089432134</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.575177605266745</v>
+        <v>-1.753986113579648</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.465928135031318</v>
+        <v>-1.153520388166545</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.5215765113127191</v>
+        <v>-0.4012147013915007</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.5794000260028423</v>
+        <v>0.7403231839253522</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.159249963222484</v>
+        <v>-3.298980313204675</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.1266936227506885</v>
+        <v>0.3098833395741415</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.194464719884205</v>
+        <v>0.2951765840468183</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.385213396910466</v>
+        <v>-1.53348898648373</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.31485043898159</v>
+        <v>4.57126739187884</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.686348645672267</v>
+        <v>2.55819501183752</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.350022861282251</v>
+        <v>3.221467258872276</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.430431315047128</v>
+        <v>6.520046995148686</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.170142546892823</v>
+        <v>7.41905683964096</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.324733825739214</v>
+        <v>1.077395759799397</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.335621711923169</v>
+        <v>4.752443356467587</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.40013726004039</v>
+        <v>4.338556737052166</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.629142478465527</v>
+        <v>1.576599507620116</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>2.032242886942567</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.3252771064198539</v>
+        <v>-0.3252771064198537</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.536528957691655</v>
@@ -1850,29 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7475653144453872</v>
-      </c>
-      <c r="D38" s="6" t="inlineStr"/>
+        <v>-0.657266355390093</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E38" s="6" t="n">
-        <v>-1</v>
+        <v>-0.968325064445264</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3118250309456789</v>
+        <v>-0.3071307285640316</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.01481216688575825</v>
+        <v>-0.03843743571253544</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.8736922468999022</v>
+        <v>-0.8601054579830022</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.07720756554615998</v>
+        <v>-0.08202857421781672</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.04646776430390528</v>
+        <v>0.01026840868744393</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.6606534698651765</v>
+        <v>-0.6330447737733245</v>
       </c>
     </row>
     <row r="39">
@@ -1886,22 +1888,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>10.15495228876098</v>
+        <v>9.064821982277572</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>11.87894644011424</v>
+        <v>10.58607467610716</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.432367100834868</v>
+        <v>2.287438682201102</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>6.442968357229006</v>
+        <v>6.723491514017693</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>6.595523254182706</v>
+        <v>6.78125777512505</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.980555063844309</v>
+        <v>2.864665136030456</v>
       </c>
     </row>
     <row r="40">
@@ -1951,31 +1953,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.350058478533025</v>
+        <v>-2.386509880319341</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.361509572210562</v>
+        <v>-4.407686866896599</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.815746739720203</v>
+        <v>-2.110690749795217</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.209778804337317</v>
+        <v>-2.106947394713281</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.549538928802968</v>
+        <v>-2.568162229497279</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.5907582999385385</v>
+        <v>0.6124720967276289</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.539607612492305</v>
+        <v>-1.5845082090923</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.749502754787794</v>
+        <v>-2.787598818791168</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.06189984330685211</v>
+        <v>0.02627942808623817</v>
       </c>
     </row>
     <row r="42">
@@ -1986,31 +1988,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.706030679138145</v>
+        <v>2.68738292130009</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.2917825247398246</v>
+        <v>-0.1974388802284935</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.408524859733054</v>
+        <v>3.245626468746525</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.648366306832357</v>
+        <v>1.634198934257091</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.474644466879933</v>
+        <v>1.586967283232758</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.125197702136702</v>
+        <v>5.181936409125818</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.506742465397078</v>
+        <v>1.582185051041363</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.007657027249884869</v>
+        <v>0.1152036483746632</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.477011748781083</v>
+        <v>3.40918948500277</v>
       </c>
     </row>
     <row r="43">
@@ -2056,31 +2058,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4760508835501595</v>
+        <v>-0.5002077458876842</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.8669537011552848</v>
+        <v>-0.8841742798324622</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3836941920150174</v>
+        <v>-0.4243235584391564</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.5595092763029492</v>
+        <v>-0.5295521538132889</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6555846354347467</v>
+        <v>-0.6652627775541207</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04490705339202887</v>
+        <v>0.085169876014697</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3916208893560231</v>
+        <v>-0.3846008011752399</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.6940601092672531</v>
+        <v>-0.6826532914560696</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.01074380902109134</v>
+        <v>0.003243864539214263</v>
       </c>
     </row>
     <row r="45">
@@ -2091,31 +2093,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.135176839835349</v>
+        <v>1.051874799196019</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.003573370877516854</v>
+        <v>0.1079081291422302</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.356644248174589</v>
+        <v>1.286337423379587</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8613236393267294</v>
+        <v>0.9116474597263592</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7659375281812351</v>
+        <v>0.9239303900137166</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.671747960304971</v>
+        <v>2.919923363933528</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6110949333024884</v>
+        <v>0.6064151838357215</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.03468854816674342</v>
+        <v>0.08811270365278071</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.405367026693951</v>
+        <v>1.313547166977344</v>
       </c>
     </row>
     <row r="46">
@@ -2145,7 +2147,7 @@
         <v>-0.4554789986429442</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.8737061016226524</v>
+        <v>0.8737061016226517</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-1.094962893354301</v>
@@ -2165,31 +2167,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.997612285643105</v>
+        <v>-4.781074793365883</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.583646154848001</v>
+        <v>-4.636928771501042</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.958484177441784</v>
+        <v>-4.053311634881171</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.267177459972375</v>
+        <v>-2.361163690546829</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.403969269047291</v>
+        <v>-2.781879241424384</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.061705444068294</v>
+        <v>-1.225141188219596</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.782161085779591</v>
+        <v>-2.688139299473645</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.904749554695844</v>
+        <v>-2.904367433590905</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.818308626172829</v>
+        <v>-1.975297712325684</v>
       </c>
     </row>
     <row r="48">
@@ -2200,31 +2202,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.1780766444204106</v>
+        <v>-0.0289812385107587</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.3244981129701203</v>
+        <v>0.2557543912268633</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.187577465437327</v>
+        <v>1.393768136823212</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.18054939234601</v>
+        <v>2.019675098983237</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.616256187610984</v>
+        <v>1.424727293959075</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.1023690887701</v>
+        <v>3.050864990544942</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.3474190255343694</v>
+        <v>0.5452567547461035</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.3379275543086449</v>
+        <v>0.4207270151468515</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.403053893114834</v>
+        <v>1.376725722452318</v>
       </c>
     </row>
     <row r="49">
@@ -2250,7 +2252,7 @@
         <v>-0.1206801459077892</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2314903214824234</v>
+        <v>0.2314903214824232</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.2401228478109074</v>
@@ -2270,31 +2272,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6874937315777515</v>
+        <v>-0.6922870501514345</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6514842583360401</v>
+        <v>-0.6720875465137266</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5697101983724657</v>
+        <v>-0.5585424857082089</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4549666050866787</v>
+        <v>-0.4767584895209848</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4966153687916453</v>
+        <v>-0.5299919405188739</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2228415232938341</v>
+        <v>-0.254136049794965</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4978537067552169</v>
+        <v>-0.4954198248825542</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5244368673752582</v>
+        <v>-0.5258652340497907</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3287730707901365</v>
+        <v>-0.3577957439785014</v>
       </c>
     </row>
     <row r="51">
@@ -2305,31 +2307,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.02397514520032505</v>
+        <v>0.02196436919042652</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1189005855970801</v>
+        <v>0.0774809771874425</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3334079175312998</v>
+        <v>0.4033364981612574</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.812785700100627</v>
+        <v>0.7237778431284334</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6934141499964771</v>
+        <v>0.556484380723396</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.227477699813875</v>
+        <v>1.191534381453338</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1018642550311532</v>
+        <v>0.1624874631121352</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.09192792966810952</v>
+        <v>0.1105309567890619</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4190862304515471</v>
+        <v>0.3837523556029883</v>
       </c>
     </row>
     <row r="52">
@@ -2368,7 +2370,7 @@
         <v>-0.2200624388931406</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>0.3902801156772946</v>
+        <v>0.3902801156772953</v>
       </c>
     </row>
     <row r="53">
@@ -2379,31 +2381,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.02720650157459</v>
+        <v>-1.056134924136656</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.618433941282602</v>
+        <v>-1.430557217685523</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.019310293022618</v>
+        <v>-0.9591367816255457</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.8630381631011266</v>
+        <v>-0.8095542630268722</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.9752048968391769</v>
+        <v>-0.8460334159401282</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.2414415888484865</v>
+        <v>-0.2278367572604442</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.7187255412302382</v>
+        <v>-0.7028927137221909</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.9324549638643135</v>
+        <v>-0.8863941304207436</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.2782065531870285</v>
+        <v>-0.314053182028581</v>
       </c>
     </row>
     <row r="54">
@@ -2414,31 +2416,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.017315853231068</v>
+        <v>0.9314203821869343</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.3141234979840458</v>
+        <v>0.5435868077700569</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.112419990942027</v>
+        <v>1.132651603810821</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.074132221353567</v>
+        <v>1.082275020484967</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.100779841847759</v>
+        <v>1.111436283902905</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.644160286644142</v>
+        <v>1.662260144705324</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.7215847905525146</v>
+        <v>0.7108449756569768</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.4997376386513719</v>
+        <v>0.470173033925156</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>1.087443341191662</v>
+        <v>1.109745253565241</v>
       </c>
     </row>
     <row r="55">
@@ -2473,7 +2475,7 @@
         <v>-0.06372882258840579</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.1130228873990547</v>
+        <v>0.1130228873990549</v>
       </c>
     </row>
     <row r="56">
@@ -2484,31 +2486,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.2607248435686445</v>
+        <v>-0.2707204375120969</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.3988967564514663</v>
+        <v>-0.377382703240875</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2638602860558619</v>
+        <v>-0.249657831853746</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.2141955146087672</v>
+        <v>-0.2066042028764061</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2416785809407535</v>
+        <v>-0.21459526104188</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.06369402225583969</v>
+        <v>-0.0615182196958334</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.1840232468631358</v>
+        <v>-0.1864243333925177</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.2445169334519718</v>
+        <v>-0.2336620015134241</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.07654701144751277</v>
+        <v>-0.0878467322646613</v>
       </c>
     </row>
     <row r="57">
@@ -2519,31 +2521,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.350748567954628</v>
+        <v>0.2974511562538189</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.1099265218084496</v>
+        <v>0.1928903946053313</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.3736683482512158</v>
+        <v>0.3748225272567258</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.3499633359200362</v>
+        <v>0.3678131442952895</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.3842376086940616</v>
+        <v>0.3713756553172965</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.5298655312724894</v>
+        <v>0.5666913234805384</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.2372756680509922</v>
+        <v>0.2342684659717127</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1566813182175443</v>
+        <v>0.1505237079867104</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.344696910652227</v>
+        <v>0.3582013065195667</v>
       </c>
     </row>
     <row r="58">
